--- a/CSharp/MiniProjeto/_doc/Modelagem.xlsx
+++ b/CSharp/MiniProjeto/_doc/Modelagem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro.lhjunior\source\repos\N9\MiniProjeto\_doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2E02D65-60A5-47A1-821E-6BCAF6D396AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5CB5522-C372-4BCF-95A6-0D167C88FF4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{E92C97A6-6F66-46E7-8600-B7A4ABB1DD23}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="86">
   <si>
     <t>Chave</t>
   </si>
@@ -289,6 +289,12 @@
   </si>
   <si>
     <t>varchar(10)</t>
+  </si>
+  <si>
+    <t>primary key,</t>
+  </si>
+  <si>
+    <t>,</t>
   </si>
 </sst>
 </file>
@@ -2439,10 +2445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86C484F3-C487-44CD-B603-A893B40AD791}">
-  <dimension ref="A1:F70"/>
+  <dimension ref="A1:G70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56:XFD56"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="F70" sqref="B60:F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2450,15 +2456,15 @@
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="27.42578125" customWidth="1"/>
     <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="5" max="6" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2474,11 +2480,11 @@
       <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2494,8 +2500,11 @@
       <c r="E3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>14</v>
       </c>
@@ -2505,8 +2514,11 @@
       <c r="D4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>15</v>
       </c>
@@ -2519,8 +2531,11 @@
       <c r="E5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>16</v>
       </c>
@@ -2530,8 +2545,11 @@
       <c r="D6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>17</v>
       </c>
@@ -2541,8 +2559,11 @@
       <c r="D7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>18</v>
       </c>
@@ -2556,12 +2577,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -2577,11 +2598,11 @@
       <c r="E12" t="s">
         <v>4</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -2597,8 +2618,11 @@
       <c r="E13" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>25</v>
       </c>
@@ -2608,8 +2632,11 @@
       <c r="D14" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>37</v>
       </c>
@@ -2619,8 +2646,11 @@
       <c r="D15" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>45</v>
       </c>
@@ -2630,8 +2660,11 @@
       <c r="D16" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>26</v>
       </c>
@@ -2641,8 +2674,11 @@
       <c r="D17" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>27</v>
       </c>
@@ -2652,8 +2688,11 @@
       <c r="D18" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>28</v>
       </c>
@@ -2663,8 +2702,11 @@
       <c r="D19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>29</v>
       </c>
@@ -2677,8 +2719,11 @@
       <c r="E20" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>30</v>
       </c>
@@ -2688,8 +2733,11 @@
       <c r="D21" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F21" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>31</v>
       </c>
@@ -2699,8 +2747,11 @@
       <c r="D22" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>32</v>
       </c>
@@ -2710,8 +2761,11 @@
       <c r="D23" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>33</v>
       </c>
@@ -2721,8 +2775,11 @@
       <c r="D24" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F24" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>34</v>
       </c>
@@ -2732,8 +2789,11 @@
       <c r="D25" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F25" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>35</v>
       </c>
@@ -2743,8 +2803,11 @@
       <c r="D26" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F26" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>36</v>
       </c>
@@ -2754,8 +2817,11 @@
       <c r="D27" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F27" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>38</v>
       </c>
@@ -2765,8 +2831,11 @@
       <c r="D28" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F28" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>39</v>
       </c>
@@ -2776,8 +2845,11 @@
       <c r="D29" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>40</v>
       </c>
@@ -2787,8 +2859,11 @@
       <c r="D30" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F30" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>41</v>
       </c>
@@ -2798,8 +2873,11 @@
       <c r="D31" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F31" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>42</v>
       </c>
@@ -2809,8 +2887,11 @@
       <c r="D32" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F32" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>43</v>
       </c>
@@ -2820,8 +2901,11 @@
       <c r="D33" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F33" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>44</v>
       </c>
@@ -2835,12 +2919,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -2856,11 +2940,11 @@
       <c r="E38" t="s">
         <v>4</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>6</v>
       </c>
@@ -2876,8 +2960,11 @@
       <c r="E39" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F39" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>56</v>
       </c>
@@ -2890,8 +2977,11 @@
       <c r="E40" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F40" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>57</v>
       </c>
@@ -2901,8 +2991,11 @@
       <c r="D41" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F41" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>58</v>
       </c>
@@ -2916,12 +3009,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>0</v>
       </c>
@@ -2937,11 +3030,11 @@
       <c r="E46" t="s">
         <v>4</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>6</v>
       </c>
@@ -2957,8 +3050,11 @@
       <c r="E47" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F47" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>63</v>
       </c>
@@ -2971,8 +3067,11 @@
       <c r="D48" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F48" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>61</v>
       </c>
@@ -2985,8 +3084,11 @@
       <c r="E49" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F49" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>64</v>
       </c>
@@ -2996,8 +3098,11 @@
       <c r="D50" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F50" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>65</v>
       </c>
@@ -3010,8 +3115,11 @@
       <c r="E51" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F51" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>66</v>
       </c>
@@ -3021,8 +3129,11 @@
       <c r="D52" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F52" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>67</v>
       </c>
@@ -3032,8 +3143,11 @@
       <c r="D53" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F53" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>68</v>
       </c>
@@ -3043,8 +3157,11 @@
       <c r="D54" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F54" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>69</v>
       </c>
@@ -3058,12 +3175,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>0</v>
       </c>
@@ -3079,11 +3196,11 @@
       <c r="E59" t="s">
         <v>4</v>
       </c>
-      <c r="F59" t="s">
+      <c r="G59" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>6</v>
       </c>
@@ -3099,8 +3216,11 @@
       <c r="E60" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F60" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>63</v>
       </c>
@@ -3113,8 +3233,11 @@
       <c r="D61" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F61" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>63</v>
       </c>
@@ -3127,8 +3250,11 @@
       <c r="D62" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F62" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>63</v>
       </c>
@@ -3141,8 +3267,11 @@
       <c r="D63" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F63" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>76</v>
       </c>
@@ -3152,8 +3281,11 @@
       <c r="D64" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F64" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>77</v>
       </c>
@@ -3163,8 +3295,11 @@
       <c r="D65" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F65" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>78</v>
       </c>
@@ -3174,8 +3309,11 @@
       <c r="D66" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F66" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>79</v>
       </c>
@@ -3185,8 +3323,11 @@
       <c r="D67" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F67" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>80</v>
       </c>
@@ -3196,8 +3337,11 @@
       <c r="D68" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F68" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>81</v>
       </c>
@@ -3207,8 +3351,11 @@
       <c r="D69" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F69" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>82</v>
       </c>
@@ -3232,7 +3379,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
